--- a/Suiveur/files/Suiveurv2_1.xlsx
+++ b/Suiveur/files/Suiveurv2_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophecornu/Documents/projects/OmsInSerial/Suiveur/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4A030D4-4CCA-4927-90D2-D6F0DB5EBC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BBAAA6D-E04D-45BD-BFD7-85E48D50F16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="110" uniqueCount="91">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="112" uniqueCount="92">
   <si>
     <t>Suiveur, v2.1</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>437-8008006410001101</t>
+  </si>
+  <si>
+    <t>1 row, 64 pins</t>
   </si>
   <si>
     <t>J11, J12</t>
@@ -905,7 +908,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -943,6 +946,32 @@
     <xf numFmtId="164" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -952,35 +981,6 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1339,7 +1339,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -1354,17 +1354,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.100000000000001">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -1394,549 +1394,553 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="6"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:9" s="21" customFormat="1" ht="15.75">
+      <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <v>5</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="str">
+      <c r="F4" s="13" t="str">
         <f t="shared" ref="F4:F12" si="0">"0603"</f>
         <v>0603</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A5" s="16" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" s="21" customFormat="1" ht="15.75">
+      <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="16" t="str">
+      <c r="F5" s="13" t="str">
         <f t="shared" si="0"/>
         <v>0603</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A6" s="30" t="s">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" s="21" customFormat="1" ht="15.75">
+      <c r="A6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>5</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="16" t="str">
+      <c r="F6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>0603</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A7" s="26" t="s">
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" s="21" customFormat="1" ht="15.75">
+      <c r="A7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="16" t="str">
+      <c r="F7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>0603</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A8" s="26" t="s">
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" s="21" customFormat="1" ht="15.75">
+      <c r="A8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="13">
         <v>1</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="16" t="str">
+      <c r="F8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>0603</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A9" s="16" t="s">
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" s="21" customFormat="1" ht="15.75">
+      <c r="A9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="13">
         <v>6</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="16" t="str">
+      <c r="F9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>0603</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A10" s="26" t="s">
+      <c r="H9" s="20"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" s="21" customFormat="1" ht="15.75">
+      <c r="A10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="13">
         <v>7</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="16" t="str">
+      <c r="F10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>0603</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A11" s="16" t="s">
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" s="21" customFormat="1" ht="15.75">
+      <c r="A11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="13">
         <v>2</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:9" s="25" customFormat="1" ht="16.5">
-      <c r="A12" s="26" t="s">
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" s="21" customFormat="1" ht="16.5">
+      <c r="A12" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="20">
         <v>1</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="16" t="str">
+      <c r="F12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>0603</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A13" s="16" t="s">
+      <c r="H12" s="26"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" s="21" customFormat="1" ht="15.75">
+      <c r="A13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="13">
         <v>2</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A14" s="16" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" s="21" customFormat="1" ht="15.75">
+      <c r="A14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="13">
         <v>5</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A15" s="16" t="s">
+      <c r="H14" s="15"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" s="21" customFormat="1" ht="15.75">
+      <c r="A15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <v>2</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:9" s="21" customFormat="1" ht="15.75">
+      <c r="A17" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="13">
         <v>5</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="18" t="s">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A18" s="16" t="s">
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" s="21" customFormat="1" ht="15.75">
+      <c r="A18" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="13">
         <v>1</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="G18" s="16" t="s">
+      <c r="E18" s="20"/>
+      <c r="G18" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="24"/>
-    </row>
-    <row r="19" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A19" s="16" t="s">
+      <c r="H18" s="13"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" s="21" customFormat="1" ht="15.75">
+      <c r="A19" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="13">
         <v>1</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="20" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A20" s="16" t="s">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" s="21" customFormat="1" ht="15.75">
+      <c r="A20" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="13">
         <v>2</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="H20" s="16" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="H20" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A21" s="16" t="s">
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" s="21" customFormat="1" ht="15.75">
+      <c r="A21" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="13">
         <v>2</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="27" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A22" s="26" t="s">
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" s="21" customFormat="1" ht="15.75">
+      <c r="A22" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="22">
         <v>2</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A23" s="16" t="s">
+      <c r="H22" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="26">
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" s="21" customFormat="1" ht="15.75">
+      <c r="A23" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="22">
         <v>2</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16" t="s">
+      <c r="D23" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A24" s="16" t="s">
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="26">
+      <c r="H23" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" s="21" customFormat="1" ht="15.75">
+      <c r="A24" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="22">
         <v>1</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="16" t="s">
+      <c r="C24" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A25" s="16" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" s="21" customFormat="1" ht="15.75">
+      <c r="A25" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="22">
+        <v>1</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="26">
-        <v>1</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A26" s="16"/>
-      <c r="B26" s="26">
+      <c r="D25" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" s="21" customFormat="1" ht="15.75">
+      <c r="A26" s="13"/>
+      <c r="B26" s="22">
         <v>2</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="16" t="s">
+      <c r="C26" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="18" t="s">
+      <c r="D26" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I26" s="16"/>
-    </row>
-    <row r="27" spans="1:9" s="25" customFormat="1" ht="15.75">
-      <c r="A27" s="16"/>
-      <c r="B27" s="26">
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" s="21" customFormat="1" ht="15.75">
+      <c r="A27" s="13"/>
+      <c r="B27" s="22">
         <v>2</v>
       </c>
-      <c r="C27" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="18" t="s">
+      <c r="C27" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="I27" s="16"/>
+      <c r="D27" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1947,20 +1951,20 @@
       <c r="H28" s="8"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="1:9" s="17" customFormat="1" ht="15.75">
-      <c r="A29" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="21">
+    <row r="29" spans="1:9" ht="15.75">
+      <c r="A29" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="17">
         <v>1</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="21"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
